--- a/medicine/Psychotrope/Gordon_(bière)/Gordon_(bière).xlsx
+++ b/medicine/Psychotrope/Gordon_(bière)/Gordon_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gordon_(bi%C3%A8re)</t>
+          <t>Gordon_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gordon Finest Beers (les Bières Fines Gordon), sont un ensemble de marques de bière commercialisées par la société Martin’s.
 Leur marketing met en avant leur supposée origine écossaise. Le lieu de production n'est pas précisé par le site de la brasserie.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gordon_(bi%C3%A8re)</t>
+          <t>Gordon_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1924, la marque Gordon Scotch Ale est déposé en Belgique pour la première fois par le fondateur John Martin, le maitre brasseur anglais arrivé à Anvers en 1909.
 L'année 1992 voit le lancement de la Finest Beer Selection, la nouvelle dénomination de bières spéciales lancée par le petit fils du fondateur, Anthony Martin.
@@ -521,7 +535,7 @@
 En 2000, la gamme des bières Gordon s’agrandit avec la Gordon Finest Red et la Gordon Finest Silver, commercialisées sous forme de canettes.
 La Gordon Finest Platinum est lancée en 2005, avec un nouveau packaging en 50 cl.
 En 2008, Anthony Martin innove, en termes de packaging (Gordon Platinium PET 50cl).
-La gamme est lancée en 2009 en France[1].
+La gamme est lancée en 2009 en France.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gordon_(bi%C3%A8re)</t>
+          <t>Gordon_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gordon Xplosion Tequila, une blonde à 9 % d'alcool
 Gordon Xplosion Red Fruit, de couleur rouge grenat, à 11 % d'alcool
@@ -570,7 +586,7 @@
 Gordon Finest Copper, une blonde à 6,6 % d’alcool
 Gordon Finest Five, une blonde dorée à 5 % d'alcool
 Gordon Finest Zero, une version blonde sans alcool
-Gordon Finest Xenon, une blonde à 8,8 % d'alcool[2]
+Gordon Finest Xenon, une blonde à 8,8 % d'alcool
 Gordon Xplosion Honey Whisky, une blonde à 9 % d'alcool
 Gordon Xplosion Peach,une blonde à 11 % d'alcool
 Gordon Blond Oak Aged, une blonde vieillie en fût de chêne et de longue conservation, titrant à 8 % d'alcool,</t>
